--- a/IT_time.xlsx
+++ b/IT_time.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28132A4-1B7F-463A-B247-9AE81E12095C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -897,7 +896,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3536,8 +3535,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L252"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A243" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F252" sqref="F252"/>
@@ -6538,10 +6537,15 @@
       </c>
     </row>
     <row r="251" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F251" s="9"/>
+      <c r="F251" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="252" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F252" s="9"/>
+    </row>
+    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F253" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/IT_time.xlsx
+++ b/IT_time.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC1526C-F171-42C6-883D-53DE5995C941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="290">
   <si>
     <t>20 травня 2021 р.</t>
   </si>
@@ -891,12 +892,15 @@
   </si>
   <si>
     <t>23 січня</t>
+  </si>
+  <si>
+    <t>24 січня</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3535,11 +3539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F252" sqref="F252"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G249" sqref="G249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3929,7 +3933,7 @@
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f>B27/B25</f>
-        <v>0.86</v>
+        <v>0.89375000000000004</v>
       </c>
       <c r="D26">
         <v>22</v>
@@ -3943,8 +3947,8 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
-        <f>SUM(F228:F250)</f>
-        <v>3440</v>
+        <f>SUM(F228:F251)</f>
+        <v>3575</v>
       </c>
       <c r="D27">
         <v>23</v>
@@ -6537,8 +6541,11 @@
       </c>
     </row>
     <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E251" t="s">
+        <v>289</v>
+      </c>
       <c r="F251" s="2">
-        <v>55</v>
+        <v>135</v>
       </c>
     </row>
     <row r="252" spans="4:6" x14ac:dyDescent="0.25">

--- a/IT_time.xlsx
+++ b/IT_time.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC1526C-F171-42C6-883D-53DE5995C941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="291">
   <si>
     <t>20 травня 2021 р.</t>
   </si>
@@ -895,12 +894,15 @@
   </si>
   <si>
     <t>24 січня</t>
+  </si>
+  <si>
+    <t>25 січня</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3539,11 +3541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L253"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G249" sqref="G249"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F253" sqref="F253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6525,6 +6527,9 @@
       </c>
     </row>
     <row r="249" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <v>245</v>
+      </c>
       <c r="E249" t="s">
         <v>287</v>
       </c>
@@ -6533,6 +6538,9 @@
       </c>
     </row>
     <row r="250" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <v>246</v>
+      </c>
       <c r="E250" t="s">
         <v>288</v>
       </c>
@@ -6541,6 +6549,9 @@
       </c>
     </row>
     <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <v>247</v>
+      </c>
       <c r="E251" t="s">
         <v>289</v>
       </c>
@@ -6549,10 +6560,24 @@
       </c>
     </row>
     <row r="252" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F252" s="9"/>
+      <c r="D252">
+        <v>248</v>
+      </c>
+      <c r="E252" t="s">
+        <v>290</v>
+      </c>
+      <c r="F252" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="253" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F253" s="9"/>
+    </row>
+    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F254" s="9"/>
+    </row>
+    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F255" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/IT_time.xlsx
+++ b/IT_time.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="294">
   <si>
     <t>20 травня 2021 р.</t>
   </si>
@@ -897,13 +897,22 @@
   </si>
   <si>
     <t>25 січня</t>
+  </si>
+  <si>
+    <t>26 січня</t>
+  </si>
+  <si>
+    <t>27 січня</t>
+  </si>
+  <si>
+    <t>28 січня</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -938,6 +947,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -990,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1024,6 +1046,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -1115,9 +1143,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$E$5:$E$243</c:f>
+              <c:f>Лист1!$E$5:$E$254</c:f>
               <c:strCache>
-                <c:ptCount val="239"/>
+                <c:ptCount val="250"/>
                 <c:pt idx="0">
                   <c:v>20 травня 2021 р.</c:v>
                 </c:pt>
@@ -1834,16 +1862,49 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>16 січня</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>17 січня</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>18 січня</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>19 січня</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>20 січня</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>21 січня</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>22 січня</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>23 січня</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>24 січня</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>25 січня</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>26 січня</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>27 січня</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$5:$F$243</c:f>
+              <c:f>Лист1!$F$5:$F$254</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="239"/>
+                <c:ptCount val="250"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -2560,6 +2621,39 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3542,10 +3636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L255"/>
+  <dimension ref="A1:L258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F253" sqref="F253"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F256" sqref="F256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3935,7 +4029,7 @@
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f>B27/B25</f>
-        <v>0.89375000000000004</v>
+        <v>1.02125</v>
       </c>
       <c r="D26">
         <v>22</v>
@@ -3949,8 +4043,8 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
-        <f>SUM(F228:F251)</f>
-        <v>3575</v>
+        <f>SUM(F228:F254)</f>
+        <v>4085</v>
       </c>
       <c r="D27">
         <v>23</v>
@@ -6566,18 +6660,48 @@
       <c r="E252" t="s">
         <v>290</v>
       </c>
-      <c r="F252" s="2">
-        <v>95</v>
+      <c r="F252" s="17">
+        <v>210</v>
       </c>
     </row>
     <row r="253" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F253" s="9"/>
+      <c r="D253">
+        <v>249</v>
+      </c>
+      <c r="E253" t="s">
+        <v>291</v>
+      </c>
+      <c r="F253" s="18">
+        <v>130</v>
+      </c>
     </row>
     <row r="254" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F254" s="9"/>
+      <c r="D254">
+        <v>250</v>
+      </c>
+      <c r="E254" t="s">
+        <v>292</v>
+      </c>
+      <c r="F254" s="18">
+        <v>170</v>
+      </c>
     </row>
     <row r="255" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F255" s="9"/>
+      <c r="E255" t="s">
+        <v>293</v>
+      </c>
+      <c r="F255" s="18">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F256" s="9"/>
+    </row>
+    <row r="257" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F257" s="9"/>
+    </row>
+    <row r="258" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F258" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
